--- a/invertebrados/ocorrencias/Validado_Gastropoda_consolidado_05abr23.xlsx
+++ b/invertebrados/ocorrencias/Validado_Gastropoda_consolidado_05abr23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Taise\bluePrintAraguaia\Dados\Invertebrados\gastropoda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Taise\mapasAraguaia\invertebrados\ocorrencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A355FB9D-611D-4C6D-AA2B-D24B490499AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F64329-892C-4BB9-B265-9BA90077C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1542,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1550,7 +1550,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4555,7 +4554,6 @@
       <c r="AH29" t="s">
         <v>79</v>
       </c>
-      <c r="AI29" s="7"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4648,7 +4646,6 @@
       <c r="AH30" t="s">
         <v>79</v>
       </c>
-      <c r="AI30" s="7"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4708,7 +4705,6 @@
       <c r="AH31" t="s">
         <v>426</v>
       </c>
-      <c r="AI31" s="7"/>
       <c r="AK31" t="s">
         <v>79</v>
       </c>
@@ -5844,8 +5840,8 @@
       <c r="Y45" t="s">
         <v>25</v>
       </c>
-      <c r="Z45" t="s">
-        <v>397</v>
+      <c r="Z45" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="AC45" t="s">
         <v>392</v>

--- a/invertebrados/ocorrencias/Validado_Gastropoda_consolidado_05abr23.xlsx
+++ b/invertebrados/ocorrencias/Validado_Gastropoda_consolidado_05abr23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Taise\mapasAraguaia\invertebrados\ocorrencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F64329-892C-4BB9-B265-9BA90077C1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8BCB8-24C7-4C73-A396-93FCF9D5C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>tc={AC39CC1E-DB0C-4DBC-877F-31D870B99C87}</author>
   </authors>
   <commentList>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{5DB55C71-24F4-417D-9647-D70AF0C90309}">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{5DB55C71-24F4-417D-9647-D70AF0C90309}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -35,7 +35,7 @@
 Que nível de endemismo?</t>
       </text>
     </comment>
-    <comment ref="BC1" authorId="1" shapeId="0" xr:uid="{AC39CC1E-DB0C-4DBC-877F-31D870B99C87}">
+    <comment ref="BD1" authorId="1" shapeId="0" xr:uid="{AC39CC1E-DB0C-4DBC-877F-31D870B99C87}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="470">
   <si>
     <t>id</t>
   </si>
@@ -1452,6 +1452,12 @@
   </si>
   <si>
     <t>sim</t>
+  </si>
+  <si>
+    <t>origem</t>
+  </si>
+  <si>
+    <t>nativo</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1550,6 +1556,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,11 +1859,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AX1" dT="2023-04-03T20:46:51.96" personId="{DBBFDE3C-0360-42B0-B8D1-343981F0CEE5}" id="{5DB55C71-24F4-417D-9647-D70AF0C90309}">
+  <threadedComment ref="AY1" dT="2023-04-03T20:46:51.96" personId="{DBBFDE3C-0360-42B0-B8D1-343981F0CEE5}" id="{5DB55C71-24F4-417D-9647-D70AF0C90309}">
     <text>Confirmar com Milena.
 Que nível de endemismo?</text>
   </threadedComment>
-  <threadedComment ref="BC1" dT="2023-04-03T20:39:41.66" personId="{DBBFDE3C-0360-42B0-B8D1-343981F0CEE5}" id="{AC39CC1E-DB0C-4DBC-877F-31D870B99C87}">
+  <threadedComment ref="BD1" dT="2023-04-03T20:39:41.66" personId="{DBBFDE3C-0360-42B0-B8D1-343981F0CEE5}" id="{AC39CC1E-DB0C-4DBC-877F-31D870B99C87}">
     <text>ALÓCTONE / AUTÓCTONE (EXÓTICA?)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1864,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z45" sqref="Z45"/>
+    <sheetView tabSelected="1" topLeftCell="AF31" workbookViewId="0">
+      <selection activeCell="AK44" sqref="AK44:AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,10 +1885,11 @@
     <col min="33" max="33" width="27.28515625" style="5" customWidth="1"/>
     <col min="34" max="35" width="27.28515625" customWidth="1"/>
     <col min="36" max="36" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" customWidth="1"/>
+    <col min="37" max="37" width="31.5703125" customWidth="1"/>
+    <col min="38" max="38" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1991,67 +1999,70 @@
         <v>439</v>
       </c>
       <c r="AK1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AL1" t="s">
         <v>460</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -2142,8 +2153,11 @@
       <c r="AJ2" t="s">
         <v>457</v>
       </c>
+      <c r="AK2" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>412</v>
       </c>
@@ -2204,8 +2218,11 @@
       <c r="AH3" t="s">
         <v>420</v>
       </c>
+      <c r="AK3" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2293,8 +2310,11 @@
       <c r="AJ4" t="s">
         <v>457</v>
       </c>
+      <c r="AK4" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -2394,8 +2414,11 @@
       <c r="AJ5" t="s">
         <v>457</v>
       </c>
+      <c r="AK5" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -2483,8 +2506,11 @@
       <c r="AJ6" t="s">
         <v>459</v>
       </c>
+      <c r="AK6" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -2572,8 +2598,11 @@
       <c r="AJ7" t="s">
         <v>459</v>
       </c>
+      <c r="AK7" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -2661,8 +2690,11 @@
       <c r="AJ8" t="s">
         <v>459</v>
       </c>
+      <c r="AK8" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>242</v>
       </c>
@@ -2750,8 +2782,11 @@
       <c r="AJ9" t="s">
         <v>459</v>
       </c>
+      <c r="AK9" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>375</v>
       </c>
@@ -2842,8 +2877,11 @@
       <c r="AJ10" t="s">
         <v>459</v>
       </c>
+      <c r="AK10" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2934,8 +2972,11 @@
       <c r="AJ11" t="s">
         <v>459</v>
       </c>
+      <c r="AK11" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3029,8 +3070,11 @@
       <c r="AJ12" t="s">
         <v>459</v>
       </c>
+      <c r="AK12" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -3118,8 +3162,11 @@
       <c r="AJ13" t="s">
         <v>459</v>
       </c>
+      <c r="AK13" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -3207,8 +3254,11 @@
       <c r="AJ14" t="s">
         <v>459</v>
       </c>
+      <c r="AK14" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -3296,8 +3346,11 @@
       <c r="AJ15" t="s">
         <v>459</v>
       </c>
+      <c r="AK15" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -3385,8 +3438,11 @@
       <c r="AJ16" t="s">
         <v>457</v>
       </c>
+      <c r="AK16" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -3474,8 +3530,11 @@
       <c r="AJ17" t="s">
         <v>459</v>
       </c>
+      <c r="AK17" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -3566,8 +3625,11 @@
       <c r="AJ18" t="s">
         <v>459</v>
       </c>
+      <c r="AK18" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>434</v>
       </c>
@@ -3622,8 +3684,11 @@
       <c r="AJ19" t="s">
         <v>459</v>
       </c>
+      <c r="AK19" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -3711,8 +3776,11 @@
       <c r="AJ20" t="s">
         <v>459</v>
       </c>
+      <c r="AK20" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -3800,8 +3868,11 @@
       <c r="AJ21" t="s">
         <v>459</v>
       </c>
+      <c r="AK21" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -3901,8 +3972,11 @@
       <c r="AJ22" t="s">
         <v>457</v>
       </c>
+      <c r="AK22" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -4002,8 +4076,11 @@
       <c r="AJ23" t="s">
         <v>457</v>
       </c>
+      <c r="AK23" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>358</v>
       </c>
@@ -4100,8 +4177,11 @@
       <c r="AJ24" t="s">
         <v>457</v>
       </c>
+      <c r="AK24" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>265</v>
       </c>
@@ -4189,8 +4269,11 @@
       <c r="AJ25" t="s">
         <v>457</v>
       </c>
+      <c r="AK25" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>342</v>
       </c>
@@ -4290,8 +4373,11 @@
       <c r="AJ26" t="s">
         <v>457</v>
       </c>
+      <c r="AK26" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>351</v>
       </c>
@@ -4388,8 +4474,11 @@
       <c r="AJ27" t="s">
         <v>457</v>
       </c>
+      <c r="AK27" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>388</v>
       </c>
@@ -4459,8 +4548,11 @@
       <c r="AJ28" t="s">
         <v>457</v>
       </c>
+      <c r="AK28" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -4554,8 +4646,11 @@
       <c r="AH29" t="s">
         <v>79</v>
       </c>
+      <c r="AK29" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>326</v>
       </c>
@@ -4646,8 +4741,11 @@
       <c r="AH30" t="s">
         <v>79</v>
       </c>
+      <c r="AK30" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>424</v>
       </c>
@@ -4706,10 +4804,13 @@
         <v>426</v>
       </c>
       <c r="AK31" t="s">
+        <v>469</v>
+      </c>
+      <c r="AL31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>435</v>
       </c>
@@ -4774,10 +4875,13 @@
         <v>462</v>
       </c>
       <c r="AK32" t="s">
+        <v>469</v>
+      </c>
+      <c r="AL32" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4865,8 +4969,11 @@
       <c r="AJ33" t="s">
         <v>457</v>
       </c>
+      <c r="AK33" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>185</v>
       </c>
@@ -4954,8 +5061,11 @@
       <c r="AJ34" t="s">
         <v>457</v>
       </c>
+      <c r="AK34" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -5055,8 +5165,11 @@
       <c r="AJ35" t="s">
         <v>457</v>
       </c>
+      <c r="AK35" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -5147,8 +5260,11 @@
       <c r="AJ36" t="s">
         <v>457</v>
       </c>
+      <c r="AK36" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -5239,8 +5355,11 @@
       <c r="AJ37" t="s">
         <v>457</v>
       </c>
+      <c r="AK37" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>275</v>
       </c>
@@ -5337,8 +5456,11 @@
       <c r="AJ38" t="s">
         <v>457</v>
       </c>
+      <c r="AK38" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -5438,8 +5560,11 @@
       <c r="AJ39" t="s">
         <v>457</v>
       </c>
+      <c r="AK39" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>427</v>
       </c>
@@ -5497,8 +5622,11 @@
       <c r="AJ40" t="s">
         <v>457</v>
       </c>
+      <c r="AK40" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>431</v>
       </c>
@@ -5556,8 +5684,11 @@
       <c r="AJ41" t="s">
         <v>457</v>
       </c>
+      <c r="AK41" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>433</v>
       </c>
@@ -5615,14 +5746,17 @@
       <c r="AH42" t="s">
         <v>429</v>
       </c>
-      <c r="AI42" s="6" t="s">
+      <c r="AI42" s="7" t="s">
         <v>467</v>
       </c>
       <c r="AJ42" t="s">
         <v>457</v>
       </c>
+      <c r="AK42" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>400</v>
       </c>
@@ -5689,8 +5823,11 @@
       <c r="AJ43" t="s">
         <v>457</v>
       </c>
+      <c r="AK43" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -5787,14 +5924,17 @@
       <c r="AI44" t="s">
         <v>467</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AK44" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="BC44" t="s">
+      <c r="AL44" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>394</v>
       </c>
@@ -5861,14 +6001,17 @@
       <c r="AI45" t="s">
         <v>467</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AK45" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="BC45" t="s">
+      <c r="AL45" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD45" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>438</v>
       </c>
@@ -5932,10 +6075,13 @@
       <c r="AI46" t="s">
         <v>467</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AK46" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="BC46" t="s">
+      <c r="AL46" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD46" t="s">
         <v>464</v>
       </c>
     </row>
